--- a/data/trans_orig/Q19B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Habitat-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>32.68122487416213</v>
+        <v>32.98924832542772</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>44.28619472360256</v>
+        <v>45.05073332859454</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30.07714511734091</v>
+        <v>30.66406979201691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35.67762185746589</v>
+        <v>35.93773368765981</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>39.29962698125129</v>
+        <v>40.25205313754667</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>25.0802499565603</v>
+        <v>24.96266905601301</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>35.89798344955189</v>
+        <v>36.09711111748891</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>43.77853976568451</v>
+        <v>43.29846339357189</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>28.81828384858385</v>
+        <v>28.88403880620759</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>41.77186982206299</v>
+        <v>42.54354873636719</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>57.40905408412223</v>
+        <v>57.83729129745243</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41.91799137545681</v>
+        <v>41.68270436500748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48.77659304972336</v>
+        <v>49.24750809523899</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>52.09574384060559</v>
+        <v>52.94192111146089</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>35.95229331067729</v>
+        <v>35.41415892388321</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>44.16592512221545</v>
+        <v>43.63711249103191</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>52.84833494017168</v>
+        <v>52.88048594208127</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>36.88003888892712</v>
+        <v>36.99329567799664</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>35.58187496073707</v>
+        <v>35.62489618287892</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>35.719187030742</v>
+        <v>35.63858897459276</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31.57665111034346</v>
+        <v>31.3924679380645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34.34121871766276</v>
+        <v>34.61465876448931</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>35.78592645189901</v>
+        <v>35.81156959885934</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>26.62535537380482</v>
+        <v>26.71266108577695</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>35.9802873862331</v>
+        <v>35.97816231983455</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>36.89550059047094</v>
+        <v>36.90672042302698</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>30.24365457588191</v>
+        <v>30.12807481582842</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45.2547912313664</v>
+        <v>44.84948651521552</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>44.88102418049895</v>
+        <v>45.10340237721009</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42.11010983674388</v>
+        <v>42.1495224855616</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>44.81423575634678</v>
+        <v>45.08659351629572</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>46.09171011344889</v>
+        <v>46.47264533281213</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>34.47470501131697</v>
+        <v>34.74933987320983</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>42.86518054518807</v>
+        <v>42.86648211243951</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>43.64921389634988</v>
+        <v>43.67760904300705</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>36.75990788261293</v>
+        <v>36.74070473199439</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>34.8228045070836</v>
+        <v>34.93199602069917</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>34.89276679879163</v>
+        <v>34.78960370386502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27.92050896649428</v>
+        <v>27.39133149374598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36.16042811578492</v>
+        <v>36.51106663124916</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>32.70487978780249</v>
+        <v>32.48706805696236</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>23.24096821118216</v>
+        <v>23.18741168529395</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>36.99869921615057</v>
+        <v>37.12751619628428</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>34.73880761916244</v>
+        <v>34.90294641710693</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>26.2090923439609</v>
+        <v>26.39551534752653</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>46.82840773490907</v>
+        <v>46.58993006398672</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>45.18854962924231</v>
+        <v>45.05219356588736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.17065152344973</v>
+        <v>35.68827303348458</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47.38468090658529</v>
+        <v>47.82804947089701</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>45.57612328217738</v>
+        <v>45.53614942444116</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>30.97220338388687</v>
+        <v>30.97046792540812</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>45.19825977522033</v>
+        <v>45.65796815028357</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>43.25297056357964</v>
+        <v>43.48279728434834</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>31.93850039952028</v>
+        <v>31.98397397608715</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>29.70511191191953</v>
+        <v>29.62415137062715</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>39.3362726071732</v>
+        <v>39.620423588576</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33.86724389866691</v>
+        <v>33.94104559489107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34.74367004880762</v>
+        <v>34.61222963684114</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>31.92541329379074</v>
+        <v>31.82050964105571</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.18693702543007</v>
+        <v>25.24569354960952</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>33.08352254481838</v>
+        <v>33.15907594969672</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>36.85035772402284</v>
+        <v>36.41333535396528</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>30.36609504990033</v>
+        <v>30.06651432036769</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>36.58926602702778</v>
+        <v>36.86152014048037</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>50.73638848463028</v>
+        <v>49.97407053343152</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46.33455975309032</v>
+        <v>45.90684189271222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>44.95316542750279</v>
+        <v>45.37987938114773</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>41.11848055009497</v>
+        <v>41.05260867081171</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>33.34362758247415</v>
+        <v>33.01857141879863</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>39.75470197402329</v>
+        <v>39.60526737903829</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>43.77416913486083</v>
+        <v>43.79791050558407</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>38.16704720431267</v>
+        <v>37.47056811803727</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>35.015808552778</v>
+        <v>34.95362157941499</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>40.54066706751013</v>
+        <v>40.78515054541301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33.05279684876311</v>
+        <v>33.07523711610392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37.40313899158926</v>
+        <v>37.66602281671658</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>37.05625055461094</v>
+        <v>36.84599226362186</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.81750453659317</v>
+        <v>26.87910779866056</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>37.00836030300241</v>
+        <v>36.95267524430697</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>39.47097310967212</v>
+        <v>39.40232228305717</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>30.64796609867103</v>
+        <v>30.56631929088016</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>39.74976015207249</v>
+        <v>39.76756655295195</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>45.96800964804987</v>
+        <v>46.22315007504855</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38.825176278619</v>
+        <v>38.77728219189459</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43.0599257462347</v>
+        <v>43.11962952732075</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>42.08178163027152</v>
+        <v>42.45232012053246</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.09679529956402</v>
+        <v>31.00962660773208</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>40.55459197367251</v>
+        <v>40.53519178699879</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>43.21893081244744</v>
+        <v>43.37359424680332</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>34.04781943149742</v>
+        <v>34.13006373537082</v>
       </c>
     </row>
     <row r="19">
